--- a/Meeting Candidates22-11-16.xlsx
+++ b/Meeting Candidates22-11-16.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>좋지 아니한가</t>
+          <t>Flyday Chinatown</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -526,36 +526,36 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Beggin'</t>
+          <t>Dry Flower</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Beggin'</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Beggin'</t>
+          <t>Flyday Chinatown</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Beggin'</t>
+          <t>Flyday Chinatown</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="D3" t="inlineStr">
         <is>
+          <t>좋지 아니한가</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Flyday Chinatown</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Flyday Chinatown</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Dry Flower</t>
@@ -568,111 +568,111 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>Beggin'</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>겨울이 간다</t>
+          <t>Grip!</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>좋지 아니한가</t>
+          <t>Highlight</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="I4" t="inlineStr">
         <is>
-          <t>Take The Power Back</t>
+          <t>Beggin'</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>좋지 아니한가</t>
+          <t>Flyday Chinatown</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>백일몽</t>
+          <t>Highlight</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>겨울이 간다</t>
+          <t>Believer</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="I5" t="inlineStr">
         <is>
-          <t>Dry Flower</t>
+          <t>Take The Power Back</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Flyday Chinatown</t>
+          <t>좋지 아니한가</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>Believer</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Highlight</t>
+          <t>Beggin'</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="K6" t="inlineStr">
         <is>
-          <t>Highlight</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Flyday Chinatown</t>
+          <t>백일몽</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="K7" t="inlineStr">
         <is>
-          <t>Grip!</t>
+          <t>Beggin'</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>백일몽</t>
+          <t>겨울이 간다</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="K8" t="inlineStr">
         <is>
-          <t>Believer</t>
+          <t>백일몽</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Believer</t>
+          <t>좋지 아니한가</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="K9" t="inlineStr">
         <is>
-          <t>좋지 아니한가</t>
+          <t>겨울이 간다</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="K10" t="inlineStr">
         <is>
-          <t>Flyday Chinatown</t>
+          <t>좋지 아니한가</t>
         </is>
       </c>
     </row>
